--- a/jsFundamentals.xlsx
+++ b/jsFundamentals.xlsx
@@ -1,27 +1,478 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JS_FUNDAMENTALS_01" sheetId="1" r:id="rId1"/>
+    <sheet name="JS_FUNDAMENTALS_02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+  <si>
+    <t>Episode</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Focus Areas</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Season 1</t>
+  </si>
+  <si>
+    <t>EP-01</t>
+  </si>
+  <si>
+    <t>How JavaScript Works &amp; Execution Context</t>
+  </si>
+  <si>
+    <t>JavaScript Engine, Code Execution</t>
+  </si>
+  <si>
+    <t>Core fundamentals of JS execution</t>
+  </si>
+  <si>
+    <t>EP-02</t>
+  </si>
+  <si>
+    <t>How JavaScript Code is executed? &amp; Call Stack</t>
+  </si>
+  <si>
+    <t>Execution Context, Call Stack</t>
+  </si>
+  <si>
+    <t>Understanding JS execution flow</t>
+  </si>
+  <si>
+    <t>EP-03</t>
+  </si>
+  <si>
+    <t>Hoisting in JavaScript (variables &amp; functions)</t>
+  </si>
+  <si>
+    <t>Hoisting, Variables, Functions</t>
+  </si>
+  <si>
+    <t>Key concept in JS, often misunderstood</t>
+  </si>
+  <si>
+    <t>EP-04</t>
+  </si>
+  <si>
+    <t>How functions work in JS &amp; Variable Environment</t>
+  </si>
+  <si>
+    <t>Functions, Execution Context</t>
+  </si>
+  <si>
+    <t>Understanding JS function mechanics</t>
+  </si>
+  <si>
+    <t>EP-05</t>
+  </si>
+  <si>
+    <t>SHORTEST JS Program window &amp; this keyword</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shortest JS program, Window, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>this</t>
+    </r>
+  </si>
+  <si>
+    <t>Key for mastering JS structure</t>
+  </si>
+  <si>
+    <t>EP-06</t>
+  </si>
+  <si>
+    <t>undefined vs not defined in JS</t>
+  </si>
+  <si>
+    <t>Undefined, Not Defined</t>
+  </si>
+  <si>
+    <t>Clarifying common misconceptions</t>
+  </si>
+  <si>
+    <t>EP-07</t>
+  </si>
+  <si>
+    <t>The Scope Chain, Scope &amp; Lexical Environment</t>
+  </si>
+  <si>
+    <t>Scope, Lexical Environment</t>
+  </si>
+  <si>
+    <t>Core scope-related concepts</t>
+  </si>
+  <si>
+    <t>EP-08</t>
+  </si>
+  <si>
+    <t>let &amp; const in JS Temporal Dead Zone</t>
+  </si>
+  <si>
+    <t>let, const, Temporal Dead Zone</t>
+  </si>
+  <si>
+    <t>Detailed look into variable scoping</t>
+  </si>
+  <si>
+    <t>EP-09</t>
+  </si>
+  <si>
+    <t>BLOCK SCOPE &amp; Shadowing in JS</t>
+  </si>
+  <si>
+    <t>Block Scope, Shadowing</t>
+  </si>
+  <si>
+    <t>Understanding block-level scoping</t>
+  </si>
+  <si>
+    <t>EP-10</t>
+  </si>
+  <si>
+    <t>Closures in JS</t>
+  </si>
+  <si>
+    <t>Closures</t>
+  </si>
+  <si>
+    <t>Core concept for functional JS</t>
+  </si>
+  <si>
+    <t>EP-11</t>
+  </si>
+  <si>
+    <t>setTimeout + Closures Interview Question</t>
+  </si>
+  <si>
+    <t>setTimeout, Closures</t>
+  </si>
+  <si>
+    <t>Common interview scenario</t>
+  </si>
+  <si>
+    <t>EP-12</t>
+  </si>
+  <si>
+    <t>CRAZY JS INTERVIEW ft. Closures</t>
+  </si>
+  <si>
+    <t>Closures in depth</t>
+  </si>
+  <si>
+    <t>Detailed interview-style breakdown</t>
+  </si>
+  <si>
+    <t>EP-13</t>
+  </si>
+  <si>
+    <t>FIRST CLASS FUNCTIONS ft. Anonymous Functions</t>
+  </si>
+  <si>
+    <t>First-class Functions, Anonymous Functions</t>
+  </si>
+  <si>
+    <t>Essential functional JS concepts</t>
+  </si>
+  <si>
+    <t>EP-14</t>
+  </si>
+  <si>
+    <t>Callback Functions in JS ft. Event Listeners</t>
+  </si>
+  <si>
+    <t>Callback Functions, Event Listeners</t>
+  </si>
+  <si>
+    <t>Deep dive into callbacks and events</t>
+  </si>
+  <si>
+    <t>EP-15</t>
+  </si>
+  <si>
+    <t>Asynchronous JavaScript &amp; EVENT LOOP from scratch</t>
+  </si>
+  <si>
+    <t>Event Loop, Asynchronous JS</t>
+  </si>
+  <si>
+    <t>Key for understanding async JS</t>
+  </si>
+  <si>
+    <t>EP-16</t>
+  </si>
+  <si>
+    <t>JS Engine EXPOSED Google’s V8 Architecture</t>
+  </si>
+  <si>
+    <t>V8 Engine, JS Runtime, JIT</t>
+  </si>
+  <si>
+    <t>Deep dive into JS Engine internals</t>
+  </si>
+  <si>
+    <t>EP-17</t>
+  </si>
+  <si>
+    <t>TRUST ISSUES with setTimeout()</t>
+  </si>
+  <si>
+    <t>setTimeout, Event Loop</t>
+  </si>
+  <si>
+    <t>Understanding setTimeout pitfalls</t>
+  </si>
+  <si>
+    <t>EP-18</t>
+  </si>
+  <si>
+    <t>Higher-Order Functions ft. Functional Programming</t>
+  </si>
+  <si>
+    <t>Higher-Order Functions, Functional Programming</t>
+  </si>
+  <si>
+    <t>Important functional programming technique</t>
+  </si>
+  <si>
+    <t>EP-19</t>
+  </si>
+  <si>
+    <t>map, filter &amp; reduce</t>
+  </si>
+  <si>
+    <t>Array methods (map, filter, reduce)</t>
+  </si>
+  <si>
+    <t>Essential for working with arrays</t>
+  </si>
+  <si>
+    <t>Season 2</t>
+  </si>
+  <si>
+    <t>Callback Hell</t>
+  </si>
+  <si>
+    <t>Callback Hell, Asynchronous code</t>
+  </si>
+  <si>
+    <t>How to avoid callback hell in async JS</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>Promises, Asynchronous JS</t>
+  </si>
+  <si>
+    <t>Modern way to handle async operations</t>
+  </si>
+  <si>
+    <t>Creating a Promise, Chaining &amp; Error Handling</t>
+  </si>
+  <si>
+    <t>Promise creation, chaining, error handling</t>
+  </si>
+  <si>
+    <t>Learn how to work with Promises</t>
+  </si>
+  <si>
+    <t>Async await</t>
+  </si>
+  <si>
+    <t>async/await, Promises</t>
+  </si>
+  <si>
+    <t>Simplified way of handling async code</t>
+  </si>
+  <si>
+    <t>Promise APIs + Interview Questions</t>
+  </si>
+  <si>
+    <t>Promise APIs</t>
+  </si>
+  <si>
+    <t>Common interview questions on Promises</t>
+  </si>
+  <si>
+    <t>this keyword in JavaScript</t>
+  </si>
+  <si>
+    <r>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword, Context Binding</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Detailed explanation of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in JS</t>
+    </r>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>vid-01</t>
+  </si>
+  <si>
+    <t>TimeLine</t>
+  </si>
+  <si>
+    <t>first core funda("Everything in js happens inside an execution Context")</t>
+  </si>
+  <si>
+    <t>0.20 sec</t>
+  </si>
+  <si>
+    <t>0.45 sec</t>
+  </si>
+  <si>
+    <t>0.56 sec</t>
+  </si>
+  <si>
+    <t>Execution context is similar to big box which contains two components</t>
+  </si>
+  <si>
+    <t>the first component known as memory component also known as variable environment</t>
+  </si>
+  <si>
+    <t>1.02 sec</t>
+  </si>
+  <si>
+    <t>memory comp is place where variables and functions are stored in key : value pairs</t>
+  </si>
+  <si>
+    <t>memory component is also known as variable environment</t>
+  </si>
+  <si>
+    <t>1.21 sec    (heavy word)</t>
+  </si>
+  <si>
+    <t>second component of the execution context is code component</t>
+  </si>
+  <si>
+    <t>1.58 sec    (heavy word)</t>
+  </si>
+  <si>
+    <t>Code component is also known as thread  of execution</t>
+  </si>
+  <si>
+    <t>execution happens one line at a time</t>
+  </si>
+  <si>
+    <t>javascript is a synchronous single threaded language</t>
+  </si>
+  <si>
+    <t>single threaded means executing one command at a time only in a specific order i.e, it executes one line after which it goes to another line</t>
+  </si>
+  <si>
+    <t>single threaded means javascript can execute one command at a time</t>
+  </si>
+  <si>
+    <t>1.37 sec</t>
+  </si>
+  <si>
+    <t>2.11 sec</t>
+  </si>
+  <si>
+    <t>2.23 sec (fundamental)</t>
+  </si>
+  <si>
+    <t>2.32 sec</t>
+  </si>
+  <si>
+    <t>2.39 sec</t>
+  </si>
+  <si>
+    <t>3.01 sec (What is ajax then) asynchronous Asynchronous JavaScript and XML</t>
+  </si>
+  <si>
+    <t>explaination a collection of web development techniques that allow web applications to send and receive data from a server without reloading the page()</t>
+  </si>
+  <si>
+    <t>will be covered in future topics</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -40,19 +491,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9967628" y="4629150"/>
+          <a:ext cx="3024471" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1035,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="20"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="20"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="20"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="20"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="20"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="20"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="20"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="20"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="20"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B34" s="20"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="20"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="21"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jsFundamentals.xlsx
+++ b/jsFundamentals.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>Episode</t>
   </si>
@@ -446,6 +446,42 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>vid-02</t>
+  </si>
+  <si>
+    <t>0.27sec (what happens if you run a js program)</t>
+  </si>
+  <si>
+    <t>we create a js execution context</t>
+  </si>
+  <si>
+    <t>0.53 sec example</t>
+  </si>
+  <si>
+    <t>1.44 (memory execution phase and code execution phase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>first place if goes through whole program line by line</t>
+  </si>
+  <si>
+    <t>allocates variables and functions a space in memory</t>
+  </si>
+  <si>
+    <t>for variables it is stored as key = variable name and value = undefined</t>
+  </si>
+  <si>
+    <t>for functions it is stored as key = function name and value ={entire function}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38sec in memory execution phase  </t>
+  </si>
+  <si>
+    <t>5.00sec in code execution phase</t>
   </si>
 </sst>
 </file>
@@ -627,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -688,6 +724,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,6 +777,44 @@
         <a:xfrm>
           <a:off x="9967628" y="4629150"/>
           <a:ext cx="3024471" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="10350499"/>
+          <a:ext cx="1460500" cy="1092201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1480,7 +1557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="20"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15" t="s">
@@ -1490,7 +1567,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B34" s="20"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
@@ -1500,7 +1577,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="20"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
@@ -1510,13 +1587,127 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="21"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
         <v>126</v>
       </c>
       <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="20"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="20"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B42" s="20"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="20"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" s="20"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="20"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="20"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="20"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="20"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="21"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
